--- a/src/main/resources/uploads/Test.xlsx
+++ b/src/main/resources/uploads/Test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Advanced Software Engineering Concepts\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6815338C-A2FF-4B5E-A00B-044B2CC3F019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4050"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Sr. No</t>
   </si>
@@ -51,21 +52,6 @@
     <t>Difficulty</t>
   </si>
   <si>
-    <t>What is Arrays</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>Difficulty Levels</t>
   </si>
   <si>
@@ -93,37 +79,85 @@
     <t>Option_4</t>
   </si>
   <si>
-    <t>How many Array Types</t>
-  </si>
-  <si>
-    <t>Inheritance types</t>
-  </si>
-  <si>
-    <t>qw</t>
-  </si>
-  <si>
-    <t>tr</t>
-  </si>
-  <si>
-    <t>ui</t>
-  </si>
-  <si>
-    <t>Array definition</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>utype</t>
+    <t>What is a method's signature?</t>
+  </si>
+  <si>
+    <t>The signature of a method is the name of the method the type of its return value.</t>
+  </si>
+  <si>
+    <t>The signature of a method is the name of the method and the names of its parameters.</t>
+  </si>
+  <si>
+    <t>The signature of a method is the name of the method and the data types of its parameters.</t>
+  </si>
+  <si>
+    <t>The signature of a method is the name of the method, its parameter list, and its return type.</t>
+  </si>
+  <si>
+    <t>What must a non-abstract child do about an abstract method in its parent class?</t>
+  </si>
+  <si>
+    <t>A child must define an additional method similar to the one inherited from its parent by defining a method with the same signature and different return type.</t>
+  </si>
+  <si>
+    <t>A child must override an abstract method inherited from its parent by defining a method with the same signature and same return type.</t>
+  </si>
+  <si>
+    <t>A child must not define any method with the same signature as the parent's abstract method.</t>
+  </si>
+  <si>
+    <t>A non-abstract child must define an abstract method with the same signature and same return type as the parent's abstract method</t>
+  </si>
+  <si>
+    <t>What must be true if a child of an abstract parent class does not override all of the parent's abstract methods?</t>
+  </si>
+  <si>
+    <t>This is always an error.</t>
+  </si>
+  <si>
+    <t>The child class itself must be declared to be abstract.</t>
+  </si>
+  <si>
+    <t>Child classes are automatically non-abstract, so this is OK</t>
+  </si>
+  <si>
+    <t>The parent class is in error.</t>
+  </si>
+  <si>
+    <t>Say that the situation is the same as in question 7. Which of the following array declarations is correct for an array that is expected to hold up to 10 objects of types Rat, Mouse, and PocketMouse?</t>
+  </si>
+  <si>
+    <t>Rat[] array = new Rat[10];</t>
+  </si>
+  <si>
+    <t>Rodent[] array = new Rat[10];</t>
+  </si>
+  <si>
+    <t>Rodent[] array = new Rodent[10];</t>
+  </si>
+  <si>
+    <t>Rodent[10] array;</t>
+  </si>
+  <si>
+    <t>What is the name of the class that is the ancestor to every other class in Java?</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>Java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,16 +477,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -487,25 +525,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -515,23 +553,23 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -539,25 +577,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -565,25 +603,51 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5">
-        <v>123</v>
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -592,13 +656,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$5</xm:f>
           </x14:formula1>
@@ -611,7 +675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -625,39 +689,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
